--- a/serotonin/5-HT.xlsx
+++ b/serotonin/5-HT.xlsx
@@ -8,29 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学部\pet創薬＿20220916\PET創薬\抽出データ(Excel)\serotonin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34823A0D-7B09-4293-846B-4A9339920917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBFC9D5-6693-4DEF-A9FD-04B84D866EFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14145" yWindow="30" windowWidth="14610" windowHeight="17295" firstSheet="18" activeTab="18" xr2:uid="{B1503FFB-9175-434E-8F72-56E044772CAF}"/>
+    <workbookView xWindow="14145" yWindow="30" windowWidth="14610" windowHeight="17295" firstSheet="17" activeTab="19" xr2:uid="{B1503FFB-9175-434E-8F72-56E044772CAF}"/>
   </bookViews>
   <sheets>
-    <sheet name="11C_Cimbi-36(動態)" sheetId="11" r:id="rId1"/>
-    <sheet name="11C_Cimbi-36(構造)" sheetId="10" r:id="rId2"/>
-    <sheet name="11C_MDL 100907(動態)" sheetId="9" r:id="rId3"/>
-    <sheet name="11C_MDL 100907(構造)" sheetId="3" r:id="rId4"/>
-    <sheet name="18F_altanserin(動態)" sheetId="8" r:id="rId5"/>
-    <sheet name="18F_altanserin(構造)" sheetId="4" r:id="rId6"/>
-    <sheet name="11C_WAY-100635(動態)" sheetId="6" r:id="rId7"/>
-    <sheet name="11C_WAY 100635(構造)" sheetId="2" r:id="rId8"/>
-    <sheet name="11C_SB207145(動態)" sheetId="12" r:id="rId9"/>
-    <sheet name="11C_SB207145(構造)" sheetId="13" r:id="rId10"/>
-    <sheet name="11C_HTP(動態)" sheetId="14" r:id="rId11"/>
-    <sheet name="11C_HTP(構造)" sheetId="15" r:id="rId12"/>
-    <sheet name="18F_MH.MZ(動態)" sheetId="17" r:id="rId13"/>
-    <sheet name="18F_MH.MZ(構造)" sheetId="16" r:id="rId14"/>
-    <sheet name="11C_AZ10419369(動態)" sheetId="18" r:id="rId15"/>
-    <sheet name="11C_AZ10419369(構造)" sheetId="25" r:id="rId16"/>
-    <sheet name="11C_GSK215083(動態)" sheetId="22" r:id="rId17"/>
-    <sheet name="11C_GSK215083(構造)" sheetId="23" r:id="rId18"/>
+    <sheet name="11C_Cimbi-36(kinetic)" sheetId="11" r:id="rId1"/>
+    <sheet name="11C_Cimbi-36(compound)" sheetId="10" r:id="rId2"/>
+    <sheet name="11C_MDL 100907(kinetic)" sheetId="9" r:id="rId3"/>
+    <sheet name="11C_MDL 100907(compound)" sheetId="3" r:id="rId4"/>
+    <sheet name="18F_altanserin(kinetic)" sheetId="8" r:id="rId5"/>
+    <sheet name="18F_altanserin(compound)" sheetId="4" r:id="rId6"/>
+    <sheet name="11C_WAY-100635(kinetic)" sheetId="6" r:id="rId7"/>
+    <sheet name="11C_WAY 100635(compound)" sheetId="2" r:id="rId8"/>
+    <sheet name="11C_SB207145(kinetic)" sheetId="12" r:id="rId9"/>
+    <sheet name="11C_SB207145(compound)" sheetId="13" r:id="rId10"/>
+    <sheet name="11C_HTP(kinetic)" sheetId="14" r:id="rId11"/>
+    <sheet name="11C_HTP(compound)" sheetId="15" r:id="rId12"/>
+    <sheet name="18F_MH.MZ(kinetic)" sheetId="17" r:id="rId13"/>
+    <sheet name="18F_MH.MZ(compound)" sheetId="16" r:id="rId14"/>
+    <sheet name="11C_AZ10419369(kinetic)" sheetId="18" r:id="rId15"/>
+    <sheet name="11C_AZ10419369(compound)" sheetId="25" r:id="rId16"/>
+    <sheet name="11C_GSK215083(kinetic)" sheetId="22" r:id="rId17"/>
+    <sheet name="11C_GSK215083(compound)" sheetId="23" r:id="rId18"/>
     <sheet name="11C_CUMI-101(kinetic)" sheetId="20" r:id="rId19"/>
     <sheet name="11C_CUMI-101(compound)" sheetId="21" r:id="rId20"/>
   </sheets>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="297">
   <si>
     <t>PubChem Data</t>
     <phoneticPr fontId="1"/>
@@ -106,31 +106,6 @@
   </si>
   <si>
     <t>Topological Polar Surface Area</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>48.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>Å</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -206,31 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>41.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>Å</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Antagonists at Human 5-Hydroxytryptamine receptor 5-HT2A</t>
   </si>
   <si>
@@ -238,31 +188,6 @@
   </si>
   <si>
     <t>C22H22FN3O2S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>84.7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>Å</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -409,10 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>k5,k6あり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Raphe nucleus</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -509,13 +430,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>情報無</t>
-    <rPh sb="0" eb="3">
-      <t>ジョウホウナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Vt</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1088,13 +1002,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>論文DOI</t>
-    <rPh sb="0" eb="2">
-      <t>ロンブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pig,n=8,Hippocampus</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1162,37 +1069,11 @@
     <t>10.1002/syn.20205</t>
   </si>
   <si>
-    <t>論文ROI</t>
-    <rPh sb="0" eb="2">
-      <t>ロンブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10.2967/jnumed.116.174151</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>10.2967/jnumed.111.093419</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HeLa cell,vs </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>記入無</t>
-    </r>
-    <rPh sb="13" eb="16">
-      <t>キニュウナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>homogenate,n=5,Frontal cx</t>
@@ -1257,25 +1138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">cloned human receptors, vs </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未記入</t>
-    </r>
-    <rPh sb="27" eb="30">
-      <t>ミキニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10.1016/j.nucmedbio.2009.01.012</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1353,6 +1215,18 @@
   </si>
   <si>
     <t>ROI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DOI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cloned human receptors, vs not found</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HeLa cell,vs not found</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1366,7 +1240,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1407,20 +1281,6 @@
       <color rgb="FF212121"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2588,7 +2448,7 @@
   <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2599,20 +2459,20 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
       <c r="E1" s="104"/>
       <c r="F1" s="105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" s="105"/>
       <c r="H1" s="105"/>
       <c r="I1" s="105"/>
       <c r="J1" s="106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K1" s="106"/>
       <c r="L1" s="106"/>
@@ -2649,140 +2509,138 @@
     </row>
     <row r="2" spans="1:43" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="L2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="M2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="N2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="O2" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>58</v>
       </c>
       <c r="P2" s="31"/>
       <c r="Q2" s="31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S2" s="31"/>
       <c r="T2" s="31"/>
       <c r="U2" s="33" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="V2" s="33" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W2" s="33"/>
       <c r="X2" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y2" s="31"/>
       <c r="Z2" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AA2" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="31"/>
       <c r="AC2" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AD2" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE2" s="31"/>
       <c r="AF2" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AH2" s="31"/>
       <c r="AI2" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AJ2" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AK2" s="34"/>
       <c r="AL2" s="34"/>
       <c r="AM2" s="34" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AN2" s="27"/>
       <c r="AO2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ2" s="26" t="s">
-        <v>66</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AQ2" s="26"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A3" s="107" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>2019</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Q3">
         <v>27.28</v>
@@ -2798,7 +2656,7 @@
       <c r="A4" s="109"/>
       <c r="F4" s="108"/>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>26.18</v>
@@ -2814,7 +2672,7 @@
       <c r="A5" s="109"/>
       <c r="F5" s="108"/>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>27.83</v>
@@ -2830,7 +2688,7 @@
       <c r="A6" s="109"/>
       <c r="F6" s="108"/>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>27.14</v>
@@ -2846,7 +2704,7 @@
       <c r="A7" s="109"/>
       <c r="F7" s="108"/>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q7">
         <v>13.25</v>
@@ -2909,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3D6D78-4949-4534-9F12-38746C5188A2}">
   <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2954,7 +2812,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3028,7 +2886,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="12">
         <v>23</v>
@@ -3036,7 +2894,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="12">
         <v>0</v>
@@ -3044,7 +2902,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="12">
         <v>417</v>
@@ -3052,7 +2910,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -3060,7 +2918,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="12">
         <v>0</v>
@@ -3068,7 +2926,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="12">
         <v>0</v>
@@ -3076,7 +2934,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="12">
         <v>0</v>
@@ -3084,7 +2942,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="12">
         <v>0</v>
@@ -3092,7 +2950,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -3100,42 +2958,42 @@
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="F32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="G32" s="87" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E33" s="20">
         <v>1346953</v>
@@ -3150,15 +3008,15 @@
         <v>0.39</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
       <c r="G34" s="110" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -3166,10 +3024,10 @@
         <v>0.45</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
@@ -3180,10 +3038,10 @@
         <v>0.68</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51"/>
@@ -3194,10 +3052,10 @@
         <v>0.71</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
@@ -3208,10 +3066,10 @@
         <v>0.35</v>
       </c>
       <c r="C38" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>248</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>254</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
@@ -3230,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4610B5F-9661-4BD0-9714-15716EC730DB}">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3245,20 +3103,20 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
       <c r="E1" s="104"/>
       <c r="F1" s="105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" s="105"/>
       <c r="H1" s="105"/>
       <c r="I1" s="105"/>
       <c r="J1" s="106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K1" s="106"/>
       <c r="L1" s="106"/>
@@ -3291,137 +3149,135 @@
     </row>
     <row r="2" spans="1:40" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="L2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="M2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="N2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>57</v>
-      </c>
       <c r="O2" s="31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P2" s="31"/>
       <c r="Q2" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R2" s="31"/>
       <c r="S2" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="33"/>
       <c r="W2" s="33"/>
       <c r="X2" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y2" s="31"/>
       <c r="Z2" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AA2" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="31"/>
       <c r="AC2" s="31"/>
       <c r="AD2" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE2" s="31"/>
       <c r="AF2" s="31"/>
       <c r="AG2" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AH2" s="31"/>
       <c r="AI2" s="31"/>
       <c r="AJ2" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AK2" s="34"/>
       <c r="AL2" s="34"/>
       <c r="AM2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN2" s="55" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AN2" s="55"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A3" s="107" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C3">
         <v>2002</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O3">
         <v>0.3</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q3">
         <v>0.1</v>
@@ -3447,13 +3303,13 @@
       <c r="A4" s="108"/>
       <c r="F4" s="108"/>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O4">
         <v>0.2</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q4">
         <v>0.1</v>
@@ -3479,13 +3335,13 @@
       <c r="A5" s="108"/>
       <c r="F5" s="108"/>
       <c r="K5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O5">
         <v>0.3</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q5">
         <v>0.1</v>
@@ -3511,13 +3367,13 @@
       <c r="A6" s="108"/>
       <c r="F6" s="108"/>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O6">
         <v>0.2</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q6">
         <v>0.1</v>
@@ -3543,13 +3399,13 @@
       <c r="A7" s="108"/>
       <c r="F7" s="108"/>
       <c r="K7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O7">
         <v>0.4</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q7">
         <v>0.2</v>
@@ -3575,13 +3431,13 @@
       <c r="A8" s="108"/>
       <c r="F8" s="108"/>
       <c r="K8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O8">
         <v>0.3</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q8">
         <v>0.1</v>
@@ -3607,13 +3463,13 @@
       <c r="A9" s="108"/>
       <c r="F9" s="108"/>
       <c r="K9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O9">
         <v>0.3</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q9">
         <v>0.1</v>
@@ -3639,13 +3495,13 @@
       <c r="A10" s="108"/>
       <c r="F10" s="108"/>
       <c r="K10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O10">
         <v>0.4</v>
       </c>
       <c r="P10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q10">
         <v>0.1</v>
@@ -3671,13 +3527,13 @@
       <c r="A11" s="108"/>
       <c r="F11" s="108"/>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O11">
         <v>0.4</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -3703,13 +3559,13 @@
       <c r="A12" s="108"/>
       <c r="F12" s="108"/>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="O12">
         <v>0.3</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q12">
         <v>0.1</v>
@@ -3735,13 +3591,13 @@
       <c r="A13" s="108"/>
       <c r="F13" s="108"/>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O13">
         <v>0.5</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q13">
         <v>0.1</v>
@@ -3765,13 +3621,13 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.4">
       <c r="K14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="O14">
         <v>0.2</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q14">
         <v>0.1</v>
@@ -3798,7 +3654,7 @@
         <v>25</v>
       </c>
       <c r="Y17" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z17" s="57">
         <v>6</v>
@@ -3807,7 +3663,7 @@
         <v>56</v>
       </c>
       <c r="AB17" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC17" s="57">
         <v>9</v>
@@ -3816,7 +3672,7 @@
         <v>17</v>
       </c>
       <c r="AE17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF17" s="57">
         <v>3</v>
@@ -3827,7 +3683,7 @@
         <v>21</v>
       </c>
       <c r="Y18" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z18" s="57">
         <v>3</v>
@@ -3836,7 +3692,7 @@
         <v>61</v>
       </c>
       <c r="AB18" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC18" s="57">
         <v>12</v>
@@ -3845,7 +3701,7 @@
         <v>30</v>
       </c>
       <c r="AE18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF18" s="57">
         <v>9</v>
@@ -3856,7 +3712,7 @@
         <v>26</v>
       </c>
       <c r="Y19" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z19" s="57">
         <v>5</v>
@@ -3865,7 +3721,7 @@
         <v>55</v>
       </c>
       <c r="AB19" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC19" s="57">
         <v>23</v>
@@ -3874,7 +3730,7 @@
         <v>56</v>
       </c>
       <c r="AE19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF19" s="57">
         <v>32</v>
@@ -3885,7 +3741,7 @@
         <v>28</v>
       </c>
       <c r="Y20" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z20" s="57">
         <v>9</v>
@@ -3894,7 +3750,7 @@
         <v>137</v>
       </c>
       <c r="AB20" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC20" s="57">
         <v>151</v>
@@ -3903,7 +3759,7 @@
         <v>94</v>
       </c>
       <c r="AE20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF20" s="57">
         <v>51</v>
@@ -3914,7 +3770,7 @@
         <v>26</v>
       </c>
       <c r="Y21" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z21" s="57">
         <v>5</v>
@@ -3923,7 +3779,7 @@
         <v>43</v>
       </c>
       <c r="AB21" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC21" s="57">
         <v>13</v>
@@ -3932,7 +3788,7 @@
         <v>16</v>
       </c>
       <c r="AE21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF21" s="57">
         <v>10</v>
@@ -3943,7 +3799,7 @@
         <v>24</v>
       </c>
       <c r="Y22" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z22" s="57">
         <v>4</v>
@@ -3952,7 +3808,7 @@
         <v>47</v>
       </c>
       <c r="AB22" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC22" s="57">
         <v>8</v>
@@ -3961,7 +3817,7 @@
         <v>22</v>
       </c>
       <c r="AE22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF22" s="57">
         <v>3</v>
@@ -3972,7 +3828,7 @@
         <v>24</v>
       </c>
       <c r="Y23" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z23" s="57">
         <v>3</v>
@@ -3981,7 +3837,7 @@
         <v>45</v>
       </c>
       <c r="AB23" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC23" s="57">
         <v>10</v>
@@ -3990,7 +3846,7 @@
         <v>23</v>
       </c>
       <c r="AE23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF23" s="57">
         <v>6</v>
@@ -4001,7 +3857,7 @@
         <v>36</v>
       </c>
       <c r="Y24" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z24" s="57">
         <v>6</v>
@@ -4010,7 +3866,7 @@
         <v>64</v>
       </c>
       <c r="AB24" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC24" s="57">
         <v>10</v>
@@ -4019,7 +3875,7 @@
         <v>17</v>
       </c>
       <c r="AE24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF24" s="57">
         <v>5</v>
@@ -4030,7 +3886,7 @@
         <v>26</v>
       </c>
       <c r="Y25" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z25" s="57">
         <v>4</v>
@@ -4039,7 +3895,7 @@
         <v>45</v>
       </c>
       <c r="AB25" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC25" s="57">
         <v>4</v>
@@ -4048,7 +3904,7 @@
         <v>18</v>
       </c>
       <c r="AE25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF25" s="57">
         <v>3</v>
@@ -4059,7 +3915,7 @@
         <v>24</v>
       </c>
       <c r="Y26" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z26" s="57">
         <v>2</v>
@@ -4068,7 +3924,7 @@
         <v>51</v>
       </c>
       <c r="AB26" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC26" s="57">
         <v>9</v>
@@ -4077,7 +3933,7 @@
         <v>28</v>
       </c>
       <c r="AE26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF26" s="57">
         <v>8</v>
@@ -4088,7 +3944,7 @@
         <v>31</v>
       </c>
       <c r="Y27" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z27" s="57">
         <v>6</v>
@@ -4097,7 +3953,7 @@
         <v>43</v>
       </c>
       <c r="AB27" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC27" s="57">
         <v>4</v>
@@ -4106,7 +3962,7 @@
         <v>16</v>
       </c>
       <c r="AE27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF27" s="57">
         <v>1</v>
@@ -4117,7 +3973,7 @@
         <v>12</v>
       </c>
       <c r="Y28" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z28" s="57">
         <v>2</v>
@@ -4126,7 +3982,7 @@
         <v>34</v>
       </c>
       <c r="AB28" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC28" s="57">
         <v>7</v>
@@ -4135,7 +3991,7 @@
         <v>26</v>
       </c>
       <c r="AE28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF28" s="57">
         <v>5</v>
@@ -4146,7 +4002,7 @@
         <v>23</v>
       </c>
       <c r="Y30" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z30" s="57">
         <v>4</v>
@@ -4155,7 +4011,7 @@
         <v>68</v>
       </c>
       <c r="AB30" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC30" s="57">
         <v>12</v>
@@ -4164,7 +4020,7 @@
         <v>25</v>
       </c>
       <c r="AE30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF30" s="57">
         <v>4</v>
@@ -4175,7 +4031,7 @@
         <v>22</v>
       </c>
       <c r="Y31" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z31" s="57">
         <v>7</v>
@@ -4184,7 +4040,7 @@
         <v>84</v>
       </c>
       <c r="AB31" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC31" s="57">
         <v>43</v>
@@ -4193,7 +4049,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF31" s="57">
         <v>13</v>
@@ -4204,7 +4060,7 @@
         <v>24</v>
       </c>
       <c r="Y32" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z32" s="57">
         <v>6</v>
@@ -4213,7 +4069,7 @@
         <v>60</v>
       </c>
       <c r="AB32" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC32" s="57">
         <v>31</v>
@@ -4222,7 +4078,7 @@
         <v>55</v>
       </c>
       <c r="AE32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF32" s="57">
         <v>18</v>
@@ -4233,7 +4089,7 @@
         <v>25</v>
       </c>
       <c r="Y33" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z33" s="57">
         <v>13</v>
@@ -4242,7 +4098,7 @@
         <v>153</v>
       </c>
       <c r="AB33" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC33" s="57">
         <v>174</v>
@@ -4251,7 +4107,7 @@
         <v>96</v>
       </c>
       <c r="AE33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF33" s="57">
         <v>71</v>
@@ -4262,7 +4118,7 @@
         <v>25</v>
       </c>
       <c r="Y34" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z34" s="57">
         <v>4</v>
@@ -4271,7 +4127,7 @@
         <v>64</v>
       </c>
       <c r="AB34" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC34" s="57">
         <v>22</v>
@@ -4280,7 +4136,7 @@
         <v>33</v>
       </c>
       <c r="AE34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF34" s="57">
         <v>11</v>
@@ -4291,7 +4147,7 @@
         <v>22</v>
       </c>
       <c r="Y35" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z35" s="57">
         <v>3</v>
@@ -4300,7 +4156,7 @@
         <v>57</v>
       </c>
       <c r="AB35" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC35" s="57">
         <v>15</v>
@@ -4309,7 +4165,7 @@
         <v>25</v>
       </c>
       <c r="AE35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF35" s="57">
         <v>7</v>
@@ -4320,7 +4176,7 @@
         <v>22</v>
       </c>
       <c r="Y36" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z36" s="57">
         <v>3</v>
@@ -4329,7 +4185,7 @@
         <v>53</v>
       </c>
       <c r="AB36" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC36" s="57">
         <v>15</v>
@@ -4338,7 +4194,7 @@
         <v>28</v>
       </c>
       <c r="AE36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF36" s="57">
         <v>10</v>
@@ -4349,7 +4205,7 @@
         <v>33</v>
       </c>
       <c r="Y37" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z37" s="57">
         <v>4</v>
@@ -4358,7 +4214,7 @@
         <v>68</v>
       </c>
       <c r="AB37" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC37" s="57">
         <v>12</v>
@@ -4367,7 +4223,7 @@
         <v>19</v>
       </c>
       <c r="AE37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF37" s="57">
         <v>5</v>
@@ -4378,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="Y38" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z38" s="57">
         <v>4</v>
@@ -4387,7 +4243,7 @@
         <v>51</v>
       </c>
       <c r="AB38" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC38" s="57">
         <v>12</v>
@@ -4396,7 +4252,7 @@
         <v>22</v>
       </c>
       <c r="AE38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF38" s="57">
         <v>6</v>
@@ -4407,7 +4263,7 @@
         <v>23</v>
       </c>
       <c r="Y39" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z39" s="57">
         <v>4</v>
@@ -4416,7 +4272,7 @@
         <v>74</v>
       </c>
       <c r="AB39" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC39" s="57">
         <v>21</v>
@@ -4425,7 +4281,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF39" s="57">
         <v>13</v>
@@ -4436,7 +4292,7 @@
         <v>27</v>
       </c>
       <c r="Y40" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z40" s="57">
         <v>6</v>
@@ -4445,7 +4301,7 @@
         <v>46</v>
       </c>
       <c r="AB40" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC40" s="57">
         <v>9</v>
@@ -4454,7 +4310,7 @@
         <v>19</v>
       </c>
       <c r="AE40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF40" s="57">
         <v>4</v>
@@ -4465,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="Y41" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z41" s="57">
         <v>3</v>
@@ -4474,7 +4330,7 @@
         <v>43</v>
       </c>
       <c r="AB41" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC41" s="57">
         <v>23</v>
@@ -4483,7 +4339,7 @@
         <v>34</v>
       </c>
       <c r="AE41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF41" s="57">
         <v>13</v>
@@ -4506,7 +4362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD082D02-C2AA-43DC-B5F4-D478EFB3B668}">
   <dimension ref="B2:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -4550,7 +4406,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4624,7 +4480,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="12">
         <v>16</v>
@@ -4632,7 +4488,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="12">
         <v>0</v>
@@ -4640,7 +4496,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="12">
         <v>272</v>
@@ -4648,7 +4504,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="12">
         <v>0</v>
@@ -4656,7 +4512,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
@@ -4664,7 +4520,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="12">
         <v>0</v>
@@ -4672,7 +4528,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="12">
         <v>0</v>
@@ -4680,7 +4536,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="12">
         <v>0</v>
@@ -4688,7 +4544,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -4696,32 +4552,32 @@
     </row>
     <row r="28" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="F32" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -4729,10 +4585,10 @@
         <v>0.18</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E33" s="20">
         <v>1280452</v>
@@ -4746,10 +4602,10 @@
         <v>0.21879999999999999</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E34" s="51">
         <v>1280452</v>
@@ -4763,10 +4619,10 @@
         <v>0.91</v>
       </c>
       <c r="C35" s="63" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E35" s="51">
         <v>1193845</v>
@@ -4780,10 +4636,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>144</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>149</v>
       </c>
       <c r="E36" s="23">
         <v>1280454</v>
@@ -4802,8 +4658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872E948D-9587-4902-A45B-A005571A027E}">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4816,7 +4672,7 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -4824,13 +4680,13 @@
       <c r="E1" s="104"/>
       <c r="F1" s="104"/>
       <c r="G1" s="105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H1" s="105"/>
       <c r="I1" s="105"/>
       <c r="J1" s="105"/>
       <c r="K1" s="106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L1" s="106"/>
       <c r="M1" s="106"/>
@@ -4860,126 +4716,124 @@
     </row>
     <row r="2" spans="1:38" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="L2" s="114" t="s">
         <v>51</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="114" t="s">
-        <v>54</v>
       </c>
       <c r="M2" s="114"/>
       <c r="N2" s="31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
       <c r="R2" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
       <c r="V2" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W2" s="31"/>
       <c r="X2" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y2" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Z2" s="31"/>
       <c r="AA2" s="31"/>
       <c r="AB2" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AC2" s="31"/>
       <c r="AD2" s="31"/>
       <c r="AE2" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="31"/>
       <c r="AG2" s="31"/>
       <c r="AH2" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AI2" s="34"/>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2" s="58" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AL2" s="58"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A3" s="107" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="61"/>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3">
         <v>2020</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N3" s="59">
         <v>5.09</v>
       </c>
       <c r="O3" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P3" s="59">
         <v>1.72</v>
@@ -4988,7 +4842,7 @@
         <v>0.94</v>
       </c>
       <c r="S3" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T3" s="59">
         <v>0.13</v>
@@ -4999,13 +4853,13 @@
       <c r="B4" s="97"/>
       <c r="G4" s="108"/>
       <c r="L4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N4" s="59">
         <v>4.97</v>
       </c>
       <c r="O4" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P4" s="59">
         <v>1.81</v>
@@ -5014,7 +4868,7 @@
         <v>0.88</v>
       </c>
       <c r="S4" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T4" s="59">
         <v>0.13</v>
@@ -5025,13 +4879,13 @@
       <c r="B5" s="97"/>
       <c r="G5" s="108"/>
       <c r="L5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N5" s="59">
         <v>4.58</v>
       </c>
       <c r="O5" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P5" s="60">
         <v>1.6</v>
@@ -5040,7 +4894,7 @@
         <v>0.74</v>
       </c>
       <c r="S5" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T5" s="60">
         <v>0.1</v>
@@ -5051,13 +4905,13 @@
       <c r="B6" s="97"/>
       <c r="G6" s="108"/>
       <c r="L6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N6" s="59">
         <v>4.6399999999999997</v>
       </c>
       <c r="O6" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P6" s="59">
         <v>1.31</v>
@@ -5066,7 +4920,7 @@
         <v>0.79</v>
       </c>
       <c r="S6" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T6" s="60">
         <v>0.2</v>
@@ -5077,13 +4931,13 @@
       <c r="B7" s="97"/>
       <c r="G7" s="108"/>
       <c r="L7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="N7" s="59">
         <v>4.8899999999999997</v>
       </c>
       <c r="O7" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P7" s="59">
         <v>1.92</v>
@@ -5092,7 +4946,7 @@
         <v>0.84</v>
       </c>
       <c r="S7" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T7" s="59">
         <v>0.16</v>
@@ -5103,13 +4957,13 @@
       <c r="B8" s="97"/>
       <c r="G8" s="108"/>
       <c r="L8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N8" s="60">
         <v>4.3</v>
       </c>
       <c r="O8" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P8" s="59">
         <v>1.71</v>
@@ -5118,7 +4972,7 @@
         <v>0.62</v>
       </c>
       <c r="S8" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T8" s="59">
         <v>0.11</v>
@@ -5129,13 +4983,13 @@
       <c r="B9" s="97"/>
       <c r="G9" s="108"/>
       <c r="L9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N9" s="59">
         <v>5.18</v>
       </c>
       <c r="O9" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P9" s="59">
         <v>1.62</v>
@@ -5144,7 +4998,7 @@
         <v>0.99</v>
       </c>
       <c r="S9" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T9" s="60">
         <v>0.2</v>
@@ -5155,13 +5009,13 @@
       <c r="B10" s="97"/>
       <c r="G10" s="108"/>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N10" s="59">
         <v>5.14</v>
       </c>
       <c r="O10" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P10" s="59">
         <v>1.88</v>
@@ -5170,7 +5024,7 @@
         <v>0.95</v>
       </c>
       <c r="S10" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T10" s="59">
         <v>0.17</v>
@@ -5181,13 +5035,13 @@
       <c r="B11" s="97"/>
       <c r="G11" s="108"/>
       <c r="L11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N11" s="59">
         <v>5.14</v>
       </c>
       <c r="O11" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P11" s="59">
         <v>1.86</v>
@@ -5196,7 +5050,7 @@
         <v>0.95</v>
       </c>
       <c r="S11" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T11" s="60">
         <v>0.2</v>
@@ -5207,13 +5061,13 @@
       <c r="B12" s="97"/>
       <c r="G12" s="108"/>
       <c r="L12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N12" s="59">
         <v>4.92</v>
       </c>
       <c r="O12" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P12" s="59">
         <v>1.76</v>
@@ -5222,7 +5076,7 @@
         <v>0.87</v>
       </c>
       <c r="S12" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T12" s="59">
         <v>0.14000000000000001</v>
@@ -5233,13 +5087,13 @@
       <c r="B13" s="97"/>
       <c r="G13" s="108"/>
       <c r="L13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="N13" s="59">
         <v>5.37</v>
       </c>
       <c r="O13" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="60">
         <v>1.7</v>
@@ -5248,7 +5102,7 @@
         <v>1.06</v>
       </c>
       <c r="S13" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T13" s="59">
         <v>0.23</v>
@@ -5256,13 +5110,13 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="L14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N14" s="59">
         <v>4.8600000000000003</v>
       </c>
       <c r="O14" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P14" s="59">
         <v>1.72</v>
@@ -5271,7 +5125,7 @@
         <v>0.85</v>
       </c>
       <c r="S14" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T14" s="59">
         <v>0.18</v>
@@ -5279,13 +5133,13 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="L15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N15" s="59">
         <v>5.03</v>
       </c>
       <c r="O15" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P15" s="59">
         <v>1.82</v>
@@ -5294,7 +5148,7 @@
         <v>0.9</v>
       </c>
       <c r="S15" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T15" s="59">
         <v>0.09</v>
@@ -5302,13 +5156,13 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
       <c r="L16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N16" s="59">
         <v>2.98</v>
       </c>
       <c r="O16" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P16" s="60">
         <v>1</v>
@@ -5317,7 +5171,7 @@
         <v>0.13</v>
       </c>
       <c r="S16" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T16" s="59">
         <v>0.04</v>
@@ -5325,13 +5179,13 @@
     </row>
     <row r="17" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N17" s="59">
         <v>2.79</v>
       </c>
       <c r="O17" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P17" s="59">
         <v>0.84</v>
@@ -5340,7 +5194,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S17" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T17" s="59">
         <v>7.0000000000000007E-2</v>
@@ -5348,13 +5202,13 @@
     </row>
     <row r="18" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N18" s="59">
         <v>2.69</v>
       </c>
       <c r="O18" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P18" s="59">
         <v>0.99</v>
@@ -5363,7 +5217,7 @@
         <v>0.01</v>
       </c>
       <c r="S18" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T18" s="59">
         <v>0.02</v>
@@ -5371,33 +5225,33 @@
     </row>
     <row r="19" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N19" s="59">
         <v>2.66</v>
       </c>
       <c r="O19" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P19" s="59">
         <v>0.98</v>
       </c>
       <c r="S19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="11:20" x14ac:dyDescent="0.4">
       <c r="K21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="R21" s="69">
         <v>1.46</v>
       </c>
       <c r="S21" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T21" s="69">
         <v>0.19</v>
@@ -5405,13 +5259,13 @@
     </row>
     <row r="22" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L22" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="R22" s="69">
         <v>1.36</v>
       </c>
       <c r="S22" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T22" s="69">
         <v>0.23</v>
@@ -5419,13 +5273,13 @@
     </row>
     <row r="23" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R23" s="69">
         <v>1.21</v>
       </c>
       <c r="S23" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T23" s="69">
         <v>0.15</v>
@@ -5433,13 +5287,13 @@
     </row>
     <row r="24" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L24" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R24" s="69">
         <v>1.34</v>
       </c>
       <c r="S24" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T24" s="69">
         <v>0.37</v>
@@ -5447,13 +5301,13 @@
     </row>
     <row r="25" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="R25" s="69">
         <v>1.32</v>
       </c>
       <c r="S25" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T25" s="69">
         <v>0.19</v>
@@ -5461,13 +5315,13 @@
     </row>
     <row r="26" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R26" s="69">
         <v>1.1299999999999999</v>
       </c>
       <c r="S26" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T26" s="69">
         <v>0.22</v>
@@ -5475,13 +5329,13 @@
     </row>
     <row r="27" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L27" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R27" s="69">
         <v>1.6</v>
       </c>
       <c r="S27" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T27" s="69">
         <v>0.36</v>
@@ -5489,13 +5343,13 @@
     </row>
     <row r="28" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R28" s="69">
         <v>1.45</v>
       </c>
       <c r="S28" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T28" s="60">
         <v>0.3</v>
@@ -5503,13 +5357,13 @@
     </row>
     <row r="29" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L29" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="R29" s="69">
         <v>1.47</v>
       </c>
       <c r="S29" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T29" s="60">
         <v>0.4</v>
@@ -5517,13 +5371,13 @@
     </row>
     <row r="30" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L30" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="R30" s="69">
         <v>1.34</v>
       </c>
       <c r="S30" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T30" s="60">
         <v>0.22</v>
@@ -5531,13 +5385,13 @@
     </row>
     <row r="31" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L31" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="R31" s="69">
         <v>1.65</v>
       </c>
       <c r="S31" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T31" s="60">
         <v>0.39</v>
@@ -5545,13 +5399,13 @@
     </row>
     <row r="32" spans="11:20" x14ac:dyDescent="0.4">
       <c r="L32" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R32" s="69">
         <v>1.34</v>
       </c>
       <c r="S32" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T32" s="60">
         <v>0.24</v>
@@ -5559,13 +5413,13 @@
     </row>
     <row r="33" spans="12:20" x14ac:dyDescent="0.4">
       <c r="L33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R33" s="69">
         <v>1.33</v>
       </c>
       <c r="S33" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T33" s="60">
         <v>0.16</v>
@@ -5573,13 +5427,13 @@
     </row>
     <row r="34" spans="12:20" x14ac:dyDescent="0.4">
       <c r="L34" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="R34" s="69">
         <v>0.3</v>
       </c>
       <c r="S34" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T34" s="60">
         <v>0.1</v>
@@ -5587,13 +5441,13 @@
     </row>
     <row r="35" spans="12:20" x14ac:dyDescent="0.4">
       <c r="L35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R35" s="69">
         <v>0.09</v>
       </c>
       <c r="S35" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T35" s="60">
         <v>0.05</v>
@@ -5601,13 +5455,13 @@
     </row>
     <row r="36" spans="12:20" x14ac:dyDescent="0.4">
       <c r="L36" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R36" s="69">
         <v>0.16</v>
       </c>
       <c r="S36" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T36" s="60">
         <v>0.4</v>
@@ -5615,7 +5469,7 @@
     </row>
     <row r="37" spans="12:20" x14ac:dyDescent="0.4">
       <c r="L37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -5638,7 +5492,7 @@
   <dimension ref="C12:H19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5653,32 +5507,32 @@
   <sheetData>
     <row r="12" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C15" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D15" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="F15" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="91" t="s">
+      <c r="G15" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="91" t="s">
-        <v>32</v>
-      </c>
       <c r="H15" s="92" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.4">
@@ -5686,15 +5540,15 @@
         <v>3</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="65" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.4">
@@ -5746,7 +5600,7 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -5754,13 +5608,13 @@
       <c r="E1" s="104"/>
       <c r="F1" s="104"/>
       <c r="G1" s="105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H1" s="105"/>
       <c r="I1" s="105"/>
       <c r="J1" s="105"/>
       <c r="K1" s="106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L1" s="106"/>
       <c r="M1" s="106"/>
@@ -5790,136 +5644,136 @@
     </row>
     <row r="2" spans="1:50" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="L2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>57</v>
-      </c>
       <c r="N2" s="31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O2" s="31"/>
       <c r="P2" s="31" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
       <c r="V2" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W2" s="31"/>
       <c r="X2" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y2" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Z2" s="31"/>
       <c r="AA2" s="31"/>
       <c r="AB2" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AC2" s="31"/>
       <c r="AD2" s="31"/>
       <c r="AE2" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="31"/>
       <c r="AG2" s="31"/>
       <c r="AH2" s="34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AI2" s="34"/>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AL2" s="66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A3" s="107" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D3">
         <v>2011</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N3">
         <v>1.52</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P3" s="49">
         <v>1.08</v>
@@ -5928,7 +5782,7 @@
         <v>2.56</v>
       </c>
       <c r="S3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T3">
         <v>0.74</v>
@@ -5939,13 +5793,13 @@
       <c r="B4" s="69"/>
       <c r="G4" s="108"/>
       <c r="L4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N4">
         <v>1.33</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P4" s="49">
         <v>1.1000000000000001</v>
@@ -5954,7 +5808,7 @@
         <v>1.95</v>
       </c>
       <c r="S4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T4">
         <v>0.37</v>
@@ -5965,13 +5819,13 @@
       <c r="B5" s="69"/>
       <c r="G5" s="108"/>
       <c r="L5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N5" s="49">
         <v>1.1000000000000001</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P5" s="49">
         <v>0.87</v>
@@ -5980,7 +5834,7 @@
         <v>1.48</v>
       </c>
       <c r="S5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T5">
         <v>0.25</v>
@@ -5991,13 +5845,13 @@
       <c r="B6" s="69"/>
       <c r="G6" s="108"/>
       <c r="L6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N6">
         <v>1.01</v>
       </c>
       <c r="O6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P6" s="49">
         <v>0.8</v>
@@ -6006,7 +5860,7 @@
         <v>1.32</v>
       </c>
       <c r="S6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T6">
         <v>0.22</v>
@@ -6041,13 +5895,13 @@
       <c r="B7" s="69"/>
       <c r="G7" s="108"/>
       <c r="L7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N7">
         <v>0.99</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P7" s="49">
         <v>0.83</v>
@@ -6056,7 +5910,7 @@
         <v>1.17</v>
       </c>
       <c r="S7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T7">
         <v>0.25</v>
@@ -6067,13 +5921,13 @@
       <c r="B8" s="69"/>
       <c r="G8" s="108"/>
       <c r="L8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N8">
         <v>0.92</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P8" s="49">
         <v>0.76</v>
@@ -6082,7 +5936,7 @@
         <v>1.07</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T8">
         <v>0.22</v>
@@ -6093,13 +5947,13 @@
       <c r="B9" s="69"/>
       <c r="G9" s="108"/>
       <c r="L9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N9">
         <v>0.86</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P9" s="49">
         <v>0.64</v>
@@ -6108,7 +5962,7 @@
         <v>0.99</v>
       </c>
       <c r="S9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T9">
         <v>0.15</v>
@@ -6119,13 +5973,13 @@
       <c r="B10" s="69"/>
       <c r="G10" s="108"/>
       <c r="L10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N10">
         <v>0.62</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P10" s="49">
         <v>0.47</v>
@@ -6134,7 +5988,7 @@
         <v>0.41</v>
       </c>
       <c r="S10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T10">
         <v>0.12</v>
@@ -6145,7 +5999,7 @@
       <c r="B11" s="69"/>
       <c r="G11" s="108"/>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.4">
@@ -6158,16 +6012,16 @@
       <c r="B13" s="69"/>
       <c r="G13" s="108"/>
       <c r="K13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N13">
         <v>1.37</v>
       </c>
       <c r="O13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="49">
         <v>0.96</v>
@@ -6176,7 +6030,7 @@
         <v>1.96</v>
       </c>
       <c r="S13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T13">
         <v>0.59</v>
@@ -6184,13 +6038,13 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.4">
       <c r="L14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N14">
         <v>1.31</v>
       </c>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P14" s="49">
         <v>1.1100000000000001</v>
@@ -6199,24 +6053,24 @@
         <v>1.7</v>
       </c>
       <c r="S14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T14">
         <v>0.34</v>
       </c>
       <c r="AL14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.4">
       <c r="L15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1.07</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P15" s="49">
         <v>0.83</v>
@@ -6225,16 +6079,16 @@
         <v>1.27</v>
       </c>
       <c r="S15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T15" s="49">
         <v>0.2</v>
       </c>
       <c r="AJ15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AK15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AL15">
         <v>0.06</v>
@@ -6254,13 +6108,13 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.4">
       <c r="L16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N16">
         <v>0.99</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P16" s="49">
         <v>0.78</v>
@@ -6269,13 +6123,13 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="S16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T16">
         <v>0.15</v>
       </c>
       <c r="AK16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AL16">
         <v>0.06</v>
@@ -6295,13 +6149,13 @@
     </row>
     <row r="17" spans="12:50" x14ac:dyDescent="0.4">
       <c r="L17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N17">
         <v>0.96</v>
       </c>
       <c r="O17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P17" s="49">
         <v>0.8</v>
@@ -6310,13 +6164,13 @@
         <v>0.99</v>
       </c>
       <c r="S17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T17">
         <v>0.18</v>
       </c>
       <c r="AK17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AL17">
         <v>7.0000000000000007E-2</v>
@@ -6336,13 +6190,13 @@
     </row>
     <row r="18" spans="12:50" x14ac:dyDescent="0.4">
       <c r="L18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N18" s="49">
         <v>0.9</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P18" s="49">
         <v>0.73</v>
@@ -6351,13 +6205,13 @@
         <v>0.9</v>
       </c>
       <c r="S18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T18">
         <v>0.14000000000000001</v>
       </c>
       <c r="AK18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AL18">
         <v>0.13</v>
@@ -6377,13 +6231,13 @@
     </row>
     <row r="19" spans="12:50" x14ac:dyDescent="0.4">
       <c r="L19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N19">
         <v>0.85</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P19" s="49">
         <v>0.62</v>
@@ -6392,13 +6246,13 @@
         <v>0.86</v>
       </c>
       <c r="S19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T19">
         <v>0.14000000000000001</v>
       </c>
       <c r="AK19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AL19">
         <v>0.46</v>
@@ -6415,13 +6269,13 @@
     </row>
     <row r="20" spans="12:50" x14ac:dyDescent="0.4">
       <c r="L20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N20">
         <v>0.61</v>
       </c>
       <c r="O20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P20" s="49">
         <v>0.45</v>
@@ -6430,13 +6284,13 @@
         <v>0.31</v>
       </c>
       <c r="S20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T20">
         <v>0.08</v>
       </c>
       <c r="AK20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AL20">
         <v>0.05</v>
@@ -6456,19 +6310,19 @@
     </row>
     <row r="21" spans="12:50" x14ac:dyDescent="0.4">
       <c r="L21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N21">
         <v>0.46</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P21" s="49">
         <v>0.35</v>
       </c>
       <c r="AK21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AL21">
         <v>0.04</v>
@@ -6488,7 +6342,7 @@
     </row>
     <row r="22" spans="12:50" x14ac:dyDescent="0.4">
       <c r="AK22" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AL22">
         <v>0.38</v>
@@ -6505,7 +6359,7 @@
     </row>
     <row r="23" spans="12:50" x14ac:dyDescent="0.4">
       <c r="AK23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AL23">
         <v>0.03</v>
@@ -6525,7 +6379,7 @@
     </row>
     <row r="24" spans="12:50" x14ac:dyDescent="0.4">
       <c r="AK24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AL24">
         <v>0.02</v>
@@ -6560,8 +6414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87837135-3BBA-401E-B3AB-5073973EFAEC}">
   <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6605,7 +6459,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -6679,7 +6533,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="99">
         <v>34</v>
@@ -6687,7 +6541,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="99">
         <v>0</v>
@@ -6695,7 +6549,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="99">
         <v>767</v>
@@ -6703,7 +6557,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="99">
         <v>1</v>
@@ -6711,7 +6565,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="99">
         <v>0</v>
@@ -6719,7 +6573,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="99">
         <v>0</v>
@@ -6727,7 +6581,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="99">
         <v>0</v>
@@ -6735,7 +6589,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="99">
         <v>0</v>
@@ -6743,7 +6597,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="99">
         <v>1</v>
@@ -6751,42 +6605,42 @@
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="85" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C32" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="86" t="s">
+      <c r="E32" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="86" t="s">
+      <c r="F32" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="86" t="s">
-        <v>32</v>
-      </c>
       <c r="G32" s="88" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="64"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E33" s="20">
         <v>1346264</v>
@@ -6801,15 +6655,15 @@
         <v>0.37</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
       <c r="G34" s="110" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -6817,10 +6671,10 @@
         <v>0.38</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
@@ -6831,10 +6685,10 @@
         <v>3.85</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D36" s="54" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51"/>
@@ -6845,10 +6699,10 @@
         <v>8.1</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
@@ -6859,10 +6713,10 @@
         <v>1.9</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E38" s="51"/>
       <c r="F38" s="51"/>
@@ -6873,10 +6727,10 @@
         <v>1.5</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
@@ -6909,20 +6763,20 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
       <c r="E1" s="104"/>
       <c r="F1" s="105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" s="105"/>
       <c r="H1" s="105"/>
       <c r="I1" s="105"/>
       <c r="J1" s="106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K1" s="106"/>
       <c r="L1" s="106"/>
@@ -6954,133 +6808,133 @@
     </row>
     <row r="2" spans="1:41" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>57</v>
-      </c>
       <c r="M2" s="31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N2" s="31"/>
       <c r="O2" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
       <c r="V2" s="33"/>
       <c r="W2" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X2" s="31"/>
       <c r="Y2" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Z2" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="31"/>
       <c r="AB2" s="31"/>
       <c r="AC2" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD2" s="31"/>
       <c r="AE2" s="31"/>
       <c r="AF2" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="31"/>
       <c r="AH2" s="31"/>
       <c r="AI2" s="34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="34"/>
       <c r="AL2" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AM2" s="67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3" s="107" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C3">
         <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M3" s="69">
         <v>18</v>
       </c>
       <c r="N3" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O3" s="69">
         <v>11.2</v>
@@ -7093,13 +6947,13 @@
       <c r="A4" s="108"/>
       <c r="F4" s="108"/>
       <c r="K4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M4" s="69">
         <v>17.2</v>
       </c>
       <c r="N4" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O4" s="69">
         <v>8.82</v>
@@ -7112,13 +6966,13 @@
       <c r="A5" s="108"/>
       <c r="F5" s="108"/>
       <c r="K5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M5" s="69">
         <v>9.2799999999999994</v>
       </c>
       <c r="N5" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O5" s="69">
         <v>3.78</v>
@@ -7131,13 +6985,13 @@
       <c r="A6" s="108"/>
       <c r="F6" s="108"/>
       <c r="K6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M6" s="69">
         <v>6.69</v>
       </c>
       <c r="N6" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O6" s="69">
         <v>2.04</v>
@@ -7150,13 +7004,13 @@
       <c r="A7" s="108"/>
       <c r="F7" s="108"/>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M7" s="69">
         <v>6.12</v>
       </c>
       <c r="N7" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O7" s="69">
         <v>2.72</v>
@@ -7179,13 +7033,13 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" t="s">
         <v>221</v>
       </c>
-      <c r="J9" t="s">
-        <v>226</v>
-      </c>
       <c r="K9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="R9" s="50">
         <f>(SUM(AO3:AO8)/6)</f>
@@ -7196,7 +7050,7 @@
       <c r="A10" s="108"/>
       <c r="F10" s="108"/>
       <c r="K10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="R10" s="50">
         <f>(SUM(AO10:AO15))/6</f>
@@ -7216,30 +7070,30 @@
     <row r="12" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A12" s="108"/>
       <c r="B12" s="76" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C12" s="76">
         <v>2018</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F12" s="108"/>
       <c r="G12" s="76">
         <v>28</v>
       </c>
       <c r="H12" s="76" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I12" s="76" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J12" s="76"/>
       <c r="K12" s="76" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L12" s="76"/>
       <c r="M12" s="76"/>
@@ -7252,7 +7106,7 @@
         <v>0.37</v>
       </c>
       <c r="T12" s="76" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="U12" s="76">
         <v>0.11</v>
@@ -7277,7 +7131,7 @@
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
       <c r="K13" s="77" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L13" s="77"/>
       <c r="M13" s="77"/>
@@ -7290,7 +7144,7 @@
         <v>1.08</v>
       </c>
       <c r="T13" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="U13" s="79">
         <v>0.4</v>
@@ -7313,7 +7167,7 @@
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
       <c r="K14" s="77" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L14" s="77"/>
       <c r="M14" s="77"/>
@@ -7326,7 +7180,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="T14" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="U14" s="77">
         <v>0.12</v>
@@ -7349,7 +7203,7 @@
       <c r="I15" s="77"/>
       <c r="J15" s="77"/>
       <c r="K15" s="77" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L15" s="77"/>
       <c r="M15" s="77"/>
@@ -7362,7 +7216,7 @@
         <v>1.51</v>
       </c>
       <c r="T15" s="98" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="U15">
         <v>0.37</v>
@@ -7385,7 +7239,7 @@
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
       <c r="K16" s="77" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L16" s="77"/>
       <c r="M16" s="77"/>
@@ -7398,7 +7252,7 @@
         <v>0.84</v>
       </c>
       <c r="T16" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="U16" s="77">
         <v>0.24</v>
@@ -7418,7 +7272,7 @@
       <c r="I17" s="77"/>
       <c r="J17" s="77"/>
       <c r="K17" s="77" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L17" s="77"/>
       <c r="M17" s="77"/>
@@ -7431,7 +7285,7 @@
         <v>1.2</v>
       </c>
       <c r="T17" s="98" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="U17">
         <v>0.44</v>
@@ -7447,13 +7301,13 @@
     </row>
     <row r="18" spans="7:29" x14ac:dyDescent="0.4">
       <c r="K18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="S18" s="78">
         <v>0.48</v>
       </c>
       <c r="T18" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="U18" s="78">
         <v>0.11</v>
@@ -7477,8 +7331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F325053A-0133-4226-830D-C61211049DD6}">
   <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7516,7 +7370,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -7590,7 +7444,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="12">
         <v>27</v>
@@ -7598,7 +7452,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="12">
         <v>0</v>
@@ -7606,7 +7460,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="12">
         <v>663</v>
@@ -7614,7 +7468,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
@@ -7622,7 +7476,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="12">
         <v>0</v>
@@ -7630,7 +7484,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="12">
         <v>0</v>
@@ -7638,7 +7492,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="12">
         <v>0</v>
@@ -7646,7 +7500,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="12">
         <v>0</v>
@@ -7654,7 +7508,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
@@ -7662,44 +7516,44 @@
     </row>
     <row r="26" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="F30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="G30" s="87" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B31" s="64"/>
       <c r="C31" s="21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E31" s="21">
         <v>1259419</v>
@@ -7712,10 +7566,10 @@
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="10"/>
       <c r="C32" s="54" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E32" s="54">
         <v>1345170</v>
@@ -7730,15 +7584,15 @@
         <v>0.16</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="E33" s="51"/>
       <c r="F33" s="51"/>
       <c r="G33" s="65" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -7752,6 +7606,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7759,8 +7614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CB610B-2347-44B0-AB67-68F7C180FD05}">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7779,20 +7634,20 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
       <c r="E1" s="104"/>
       <c r="F1" s="105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" s="105"/>
       <c r="H1" s="105"/>
       <c r="I1" s="105"/>
       <c r="J1" s="106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K1" s="106"/>
       <c r="L1" s="106"/>
@@ -7822,122 +7677,122 @@
     </row>
     <row r="2" spans="1:37" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>57</v>
-      </c>
       <c r="M2" s="31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N2" s="31"/>
       <c r="O2" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
       <c r="U2" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V2" s="31"/>
       <c r="W2" s="31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
       <c r="AA2" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB2" s="31"/>
       <c r="AC2" s="31"/>
       <c r="AD2" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="31"/>
       <c r="AF2" s="31"/>
       <c r="AG2" s="34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AH2" s="34"/>
       <c r="AI2" s="34"/>
       <c r="AJ2" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AK2" s="66"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="107" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C3">
         <v>2010</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M3">
         <v>15.41</v>
@@ -7955,7 +7810,7 @@
       <c r="A4" s="108"/>
       <c r="F4" s="108"/>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M4">
         <v>15.17</v>
@@ -7973,7 +7828,7 @@
       <c r="A5" s="108"/>
       <c r="F5" s="108"/>
       <c r="K5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M5">
         <v>14.25</v>
@@ -7991,7 +7846,7 @@
       <c r="A6" s="108"/>
       <c r="F6" s="108"/>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M6">
         <v>13.53</v>
@@ -8009,7 +7864,7 @@
       <c r="A7" s="108"/>
       <c r="F7" s="108"/>
       <c r="K7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M7">
         <v>13.36</v>
@@ -8027,7 +7882,7 @@
       <c r="A8" s="108"/>
       <c r="F8" s="108"/>
       <c r="K8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M8">
         <v>12.03</v>
@@ -8045,7 +7900,7 @@
       <c r="A9" s="108"/>
       <c r="F9" s="108"/>
       <c r="K9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M9">
         <v>11.27</v>
@@ -8063,7 +7918,7 @@
       <c r="A10" s="108"/>
       <c r="F10" s="108"/>
       <c r="K10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M10">
         <v>10.87</v>
@@ -8081,7 +7936,7 @@
       <c r="A11" s="108"/>
       <c r="F11" s="108"/>
       <c r="K11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M11">
         <v>10.210000000000001</v>
@@ -8099,7 +7954,7 @@
       <c r="A12" s="108"/>
       <c r="F12" s="108"/>
       <c r="K12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M12">
         <v>9.9499999999999993</v>
@@ -8117,7 +7972,7 @@
       <c r="A13" s="108"/>
       <c r="F13" s="108"/>
       <c r="K13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M13">
         <v>9.85</v>
@@ -8133,7 +7988,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="K14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M14">
         <v>9.49</v>
@@ -8149,7 +8004,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
       <c r="K15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M15">
         <v>8.65</v>
@@ -8165,7 +8020,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.4">
       <c r="K16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M16">
         <v>5.77</v>
@@ -8183,10 +8038,10 @@
     </row>
     <row r="19" spans="10:33" x14ac:dyDescent="0.4">
       <c r="J19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M19" s="49">
         <f>(AA19/AD19+1)*U19/X19</f>
@@ -8204,7 +8059,7 @@
         <v>0.31</v>
       </c>
       <c r="V19" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W19" s="45">
         <v>0.18</v>
@@ -8213,7 +8068,7 @@
         <v>0.08</v>
       </c>
       <c r="Y19" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z19" s="45">
         <v>0.11</v>
@@ -8222,7 +8077,7 @@
         <v>0.09</v>
       </c>
       <c r="AB19" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC19" s="47">
         <v>0.1</v>
@@ -8231,7 +8086,7 @@
         <v>0.03</v>
       </c>
       <c r="AE19" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF19" s="45">
         <v>0.02</v>
@@ -8243,7 +8098,7 @@
     </row>
     <row r="20" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M20" s="49">
         <f t="shared" ref="M20:M32" si="2">(AA20/AD20+1)*U20/X20</f>
@@ -8261,7 +8116,7 @@
         <v>0.34</v>
       </c>
       <c r="V20" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W20" s="47">
         <v>0.2</v>
@@ -8270,7 +8125,7 @@
         <v>0.12</v>
       </c>
       <c r="Y20" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z20" s="45">
         <v>0.11</v>
@@ -8279,7 +8134,7 @@
         <v>0.13</v>
       </c>
       <c r="AB20" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC20" s="47">
         <v>0.1</v>
@@ -8288,7 +8143,7 @@
         <v>0.03</v>
       </c>
       <c r="AE20" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF20" s="45">
         <v>0.01</v>
@@ -8300,7 +8155,7 @@
     </row>
     <row r="21" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M21" s="49">
         <f t="shared" si="2"/>
@@ -8318,7 +8173,7 @@
         <v>0.39</v>
       </c>
       <c r="V21" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W21" s="45">
         <v>0.17</v>
@@ -8327,7 +8182,7 @@
         <v>0.11</v>
       </c>
       <c r="Y21" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z21" s="45">
         <v>0.08</v>
@@ -8336,7 +8191,7 @@
         <v>0.12</v>
       </c>
       <c r="AB21" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC21" s="45">
         <v>0.09</v>
@@ -8345,7 +8200,7 @@
         <v>0.04</v>
       </c>
       <c r="AE21" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF21" s="45">
         <v>0.02</v>
@@ -8357,7 +8212,7 @@
     </row>
     <row r="22" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M22" s="49">
         <f t="shared" si="2"/>
@@ -8375,7 +8230,7 @@
         <v>0.34</v>
       </c>
       <c r="V22" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W22" s="45">
         <v>0.16</v>
@@ -8384,7 +8239,7 @@
         <v>0.08</v>
       </c>
       <c r="Y22" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z22" s="45">
         <v>0.08</v>
@@ -8393,7 +8248,7 @@
         <v>0.08</v>
       </c>
       <c r="AB22" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC22" s="45">
         <v>7.0000000000000007E-2</v>
@@ -8402,7 +8257,7 @@
         <v>0.04</v>
       </c>
       <c r="AE22" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF22" s="45">
         <v>0.02</v>
@@ -8414,7 +8269,7 @@
     </row>
     <row r="23" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M23" s="49">
         <f t="shared" si="2"/>
@@ -8432,7 +8287,7 @@
         <v>0.4</v>
       </c>
       <c r="V23" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W23" s="45">
         <v>0.24</v>
@@ -8441,7 +8296,7 @@
         <v>0.1</v>
       </c>
       <c r="Y23" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z23" s="47">
         <v>0.1</v>
@@ -8450,7 +8305,7 @@
         <v>0.1</v>
       </c>
       <c r="AB23" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC23" s="45">
         <v>0.06</v>
@@ -8459,7 +8314,7 @@
         <v>0.05</v>
       </c>
       <c r="AE23" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF23" s="45">
         <v>0.02</v>
@@ -8471,7 +8326,7 @@
     </row>
     <row r="24" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M24" s="49">
         <f t="shared" si="2"/>
@@ -8489,7 +8344,7 @@
         <v>0.3</v>
       </c>
       <c r="V24" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W24" s="45">
         <v>0.17</v>
@@ -8498,7 +8353,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y24" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z24" s="45">
         <v>0.08</v>
@@ -8507,7 +8362,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB24" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC24" s="45">
         <v>0.09</v>
@@ -8516,7 +8371,7 @@
         <v>0.03</v>
       </c>
       <c r="AE24" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF24" s="45">
         <v>0.02</v>
@@ -8528,7 +8383,7 @@
     </row>
     <row r="25" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K25" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M25" s="49">
         <f t="shared" si="2"/>
@@ -8546,7 +8401,7 @@
         <v>0.41</v>
       </c>
       <c r="V25" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W25" s="45">
         <v>0.19</v>
@@ -8555,7 +8410,7 @@
         <v>0.11</v>
       </c>
       <c r="Y25" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z25" s="45">
         <v>0.08</v>
@@ -8564,7 +8419,7 @@
         <v>0.09</v>
       </c>
       <c r="AB25" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC25" s="45">
         <v>0.05</v>
@@ -8573,7 +8428,7 @@
         <v>0.05</v>
       </c>
       <c r="AE25" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF25" s="45">
         <v>0.02</v>
@@ -8585,7 +8440,7 @@
     </row>
     <row r="26" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M26" s="49">
         <f t="shared" si="2"/>
@@ -8603,7 +8458,7 @@
         <v>0.42</v>
       </c>
       <c r="V26" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W26" s="47">
         <v>0.2</v>
@@ -8612,7 +8467,7 @@
         <v>0.1</v>
       </c>
       <c r="Y26" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z26" s="45">
         <v>7.0000000000000007E-2</v>
@@ -8621,7 +8476,7 @@
         <v>0.09</v>
       </c>
       <c r="AB26" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC26" s="45">
         <v>0.06</v>
@@ -8630,7 +8485,7 @@
         <v>0.06</v>
       </c>
       <c r="AE26" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF26" s="45">
         <v>0.03</v>
@@ -8642,7 +8497,7 @@
     </row>
     <row r="27" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K27" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M27" s="49">
         <f t="shared" si="2"/>
@@ -8660,7 +8515,7 @@
         <v>0.39</v>
       </c>
       <c r="V27" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W27" s="47">
         <v>0.2</v>
@@ -8669,7 +8524,7 @@
         <v>0.1</v>
       </c>
       <c r="Y27" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z27" s="45">
         <v>0.09</v>
@@ -8678,7 +8533,7 @@
         <v>0.08</v>
       </c>
       <c r="AB27" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC27" s="45">
         <v>7.0000000000000007E-2</v>
@@ -8687,7 +8542,7 @@
         <v>0.05</v>
       </c>
       <c r="AE27" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF27" s="45">
         <v>0.02</v>
@@ -8699,7 +8554,7 @@
     </row>
     <row r="28" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K28" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M28" s="49">
         <f t="shared" si="2"/>
@@ -8717,7 +8572,7 @@
         <v>0.44</v>
       </c>
       <c r="V28" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W28" s="45">
         <v>0.22</v>
@@ -8726,7 +8581,7 @@
         <v>0.13</v>
       </c>
       <c r="Y28" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z28" s="47">
         <v>0.1</v>
@@ -8735,7 +8590,7 @@
         <v>0.1</v>
       </c>
       <c r="AB28" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC28" s="45">
         <v>7.0000000000000007E-2</v>
@@ -8744,7 +8599,7 @@
         <v>0.06</v>
       </c>
       <c r="AE28" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF28" s="45">
         <v>0.02</v>
@@ -8756,7 +8611,7 @@
     </row>
     <row r="29" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K29" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M29" s="49">
         <f t="shared" si="2"/>
@@ -8774,7 +8629,7 @@
         <v>0.41</v>
       </c>
       <c r="V29" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W29" s="45">
         <v>0.19</v>
@@ -8783,7 +8638,7 @@
         <v>0.11</v>
       </c>
       <c r="Y29" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z29" s="45">
         <v>0.08</v>
@@ -8792,7 +8647,7 @@
         <v>0.09</v>
       </c>
       <c r="AB29" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC29" s="45">
         <v>7.0000000000000007E-2</v>
@@ -8801,7 +8656,7 @@
         <v>0.06</v>
       </c>
       <c r="AE29" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF29" s="45">
         <v>0.02</v>
@@ -8813,7 +8668,7 @@
     </row>
     <row r="30" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K30" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M30" s="49">
         <f t="shared" si="2"/>
@@ -8831,7 +8686,7 @@
         <v>0.34</v>
       </c>
       <c r="V30" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W30" s="45">
         <v>0.21</v>
@@ -8840,7 +8695,7 @@
         <v>0.11</v>
       </c>
       <c r="Y30" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z30" s="47">
         <v>0.1</v>
@@ -8849,7 +8704,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB30" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC30" s="45">
         <v>0.08</v>
@@ -8858,7 +8713,7 @@
         <v>0.04</v>
       </c>
       <c r="AE30" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF30" s="45">
         <v>0.02</v>
@@ -8870,7 +8725,7 @@
     </row>
     <row r="31" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K31" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M31" s="49">
         <f t="shared" si="2"/>
@@ -8888,7 +8743,7 @@
         <v>0.45</v>
       </c>
       <c r="V31" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W31" s="45">
         <v>0.23</v>
@@ -8897,7 +8752,7 @@
         <v>0.15</v>
       </c>
       <c r="Y31" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z31" s="47">
         <v>0.1</v>
@@ -8906,7 +8761,7 @@
         <v>0.08</v>
       </c>
       <c r="AB31" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC31" s="45">
         <v>0.06</v>
@@ -8915,7 +8770,7 @@
         <v>0.05</v>
       </c>
       <c r="AE31" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF31" s="45">
         <v>0.02</v>
@@ -8927,7 +8782,7 @@
     </row>
     <row r="32" spans="10:33" x14ac:dyDescent="0.4">
       <c r="K32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M32" s="49">
         <f t="shared" si="2"/>
@@ -8938,7 +8793,7 @@
         <v>0.42</v>
       </c>
       <c r="V32" s="71" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W32" s="72">
         <v>0.22</v>
@@ -8947,7 +8802,7 @@
         <v>0.15</v>
       </c>
       <c r="Y32" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z32" s="47">
         <v>0.1</v>
@@ -8956,7 +8811,7 @@
         <v>0.05</v>
       </c>
       <c r="AB32" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC32" s="45">
         <v>0.03</v>
@@ -8965,7 +8820,7 @@
         <v>0.05</v>
       </c>
       <c r="AE32" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF32" s="45">
         <v>0.02</v>
@@ -8977,7 +8832,7 @@
     </row>
     <row r="34" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M34" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -8997,8 +8852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436A6E53-BD49-4529-9952-0850A894D65B}">
   <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9042,7 +8897,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
@@ -9116,7 +8971,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="52">
         <v>23</v>
@@ -9124,7 +8979,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="52">
         <v>0</v>
@@ -9132,7 +8987,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="53">
         <v>331</v>
@@ -9140,7 +8995,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="53">
         <v>1</v>
@@ -9148,7 +9003,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="53">
         <v>0</v>
@@ -9156,7 +9011,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="53">
         <v>0</v>
@@ -9164,7 +9019,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="53">
         <v>0</v>
@@ -9172,7 +9027,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="53">
         <v>0</v>
@@ -9180,7 +9035,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="53">
         <v>1</v>
@@ -9188,38 +9043,35 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="53" t="s">
         <v>26</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="G31" s="87" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9240,7 +9092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEB1DEE-E350-4AFC-99FC-6848DCB21481}">
   <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G33" sqref="G33:G38"/>
     </sheetView>
   </sheetViews>
@@ -9285,7 +9137,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -9359,7 +9211,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="12">
         <v>27</v>
@@ -9367,7 +9219,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="12">
         <v>0</v>
@@ -9375,7 +9227,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="12">
         <v>548</v>
@@ -9383,7 +9235,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -9391,7 +9243,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="12">
         <v>0</v>
@@ -9399,7 +9251,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="12">
         <v>0</v>
@@ -9407,7 +9259,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="12">
         <v>0</v>
@@ -9415,7 +9267,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="12">
         <v>0</v>
@@ -9423,7 +9275,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -9431,35 +9283,35 @@
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C32" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="91" t="s">
+      <c r="E32" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="91" t="s">
+      <c r="F32" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="91" t="s">
-        <v>32</v>
-      </c>
       <c r="G32" s="92" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -9467,15 +9319,15 @@
         <v>2.8</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E33" s="51"/>
       <c r="F33" s="51"/>
       <c r="G33" s="110" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -9483,10 +9335,10 @@
         <v>0.64</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
@@ -9497,10 +9349,10 @@
         <v>3.5</v>
       </c>
       <c r="C35" s="63" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
@@ -9511,10 +9363,10 @@
         <v>0.4</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51"/>
@@ -9525,10 +9377,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="63" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
@@ -9539,10 +9391,10 @@
         <v>0.8</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
@@ -9561,8 +9413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01407059-3064-4F6C-B4AA-17353F15CA99}">
   <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9576,20 +9428,20 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
       <c r="E1" s="104"/>
       <c r="F1" s="105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" s="105"/>
       <c r="H1" s="105"/>
       <c r="I1" s="105"/>
       <c r="J1" s="106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K1" s="106"/>
       <c r="L1" s="106"/>
@@ -9617,116 +9469,114 @@
     </row>
     <row r="2" spans="1:35" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>54</v>
-      </c>
       <c r="L2" s="32" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M2" s="32"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="33"/>
       <c r="S2" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T2" s="31"/>
       <c r="U2" s="31"/>
       <c r="V2" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="W2" s="31"/>
       <c r="X2" s="31"/>
       <c r="Y2" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Z2" s="31"/>
       <c r="AA2" s="31"/>
       <c r="AB2" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC2" s="31"/>
       <c r="AD2" s="31"/>
       <c r="AE2" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI2" s="26" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AI2" s="26"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3" s="107" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>1998</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="S3">
         <v>0.52</v>
@@ -9787,7 +9637,7 @@
       <c r="A4" s="108"/>
       <c r="F4" s="108"/>
       <c r="K4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="S4">
         <v>0.51</v>
@@ -9848,7 +9698,7 @@
       <c r="A5" s="108"/>
       <c r="F5" s="108"/>
       <c r="K5" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="S5">
         <v>0.5</v>
@@ -9909,7 +9759,7 @@
       <c r="A6" s="108"/>
       <c r="F6" s="108"/>
       <c r="K6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="S6">
         <v>0.67</v>
@@ -9970,7 +9820,7 @@
       <c r="A7" s="108"/>
       <c r="F7" s="108"/>
       <c r="K7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="S7">
         <v>0.6</v>
@@ -10031,7 +9881,7 @@
       <c r="A8" s="108"/>
       <c r="F8" s="108"/>
       <c r="K8" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="S8">
         <v>0.6</v>
@@ -10092,7 +9942,7 @@
       <c r="A9" s="108"/>
       <c r="F9" s="108"/>
       <c r="K9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="S9">
         <v>0.54</v>
@@ -10153,7 +10003,7 @@
       <c r="A10" s="108"/>
       <c r="F10" s="108"/>
       <c r="K10" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="S10">
         <v>0.53</v>
@@ -10214,7 +10064,7 @@
       <c r="A11" s="108"/>
       <c r="F11" s="108"/>
       <c r="K11" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="S11">
         <v>0.41</v>
@@ -10275,7 +10125,7 @@
       <c r="A12" s="108"/>
       <c r="F12" s="108"/>
       <c r="K12" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="S12">
         <v>0.56000000000000005</v>
@@ -10338,18 +10188,18 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="M14" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N14" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="O14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="L15" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M15">
         <v>81</v>
@@ -10367,7 +10217,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="L16" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M16">
         <v>113</v>
@@ -10385,7 +10235,7 @@
     </row>
     <row r="17" spans="12:16" x14ac:dyDescent="0.4">
       <c r="L17" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M17">
         <v>86</v>
@@ -10403,7 +10253,7 @@
     </row>
     <row r="18" spans="12:16" x14ac:dyDescent="0.4">
       <c r="L18" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M18">
         <v>29</v>
@@ -10436,8 +10286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E8144A-D75F-4B99-ADCB-364872E18185}">
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10481,7 +10331,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -10549,13 +10399,13 @@
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>36</v>
+      <c r="C18" s="11">
+        <v>41.9</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="12">
         <v>27</v>
@@ -10563,7 +10413,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="12">
         <v>0</v>
@@ -10571,7 +10421,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="12">
         <v>422</v>
@@ -10579,7 +10429,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -10587,7 +10437,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
@@ -10595,7 +10445,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="12">
         <v>0</v>
@@ -10603,7 +10453,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="12">
         <v>0</v>
@@ -10611,7 +10461,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="12">
         <v>0</v>
@@ -10619,7 +10469,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -10627,42 +10477,42 @@
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C32" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="91" t="s">
+      <c r="E32" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="91" t="s">
+      <c r="F32" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="91" t="s">
-        <v>32</v>
-      </c>
       <c r="G32" s="93" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="10"/>
       <c r="C33" s="51"/>
       <c r="D33" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E33" s="51">
         <v>624223</v>
@@ -10676,7 +10526,7 @@
       <c r="B34" s="10"/>
       <c r="C34" s="51"/>
       <c r="D34" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E34" s="51">
         <v>1259419</v>
@@ -10691,15 +10541,15 @@
         <v>0.24</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D35" s="63" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
       <c r="G35" s="110" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -10707,10 +10557,10 @@
         <v>0.32</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51"/>
@@ -10721,10 +10571,10 @@
         <v>0.48</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
@@ -10743,8 +10593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDBF390-5ACD-4955-97EF-49562FE27B75}">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10757,20 +10607,20 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
       <c r="E1" s="104"/>
       <c r="F1" s="105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" s="105"/>
       <c r="H1" s="105"/>
       <c r="I1" s="105"/>
       <c r="J1" s="106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K1" s="106"/>
       <c r="L1" s="106"/>
@@ -10798,120 +10648,118 @@
     </row>
     <row r="2" spans="1:35" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="31" t="s">
+      <c r="L2" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="N2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="32" t="s">
+      <c r="O2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="33" t="s">
         <v>56</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>59</v>
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="33"/>
       <c r="S2" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T2" s="31"/>
       <c r="U2" s="31"/>
       <c r="V2" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="W2" s="31"/>
       <c r="X2" s="31"/>
       <c r="Y2" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Z2" s="31"/>
       <c r="AA2" s="31"/>
       <c r="AB2" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC2" s="31"/>
       <c r="AD2" s="31"/>
       <c r="AE2" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI2" s="26" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AI2" s="26"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>1998</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L3">
         <v>1.33</v>
@@ -10924,7 +10772,7 @@
       <c r="A4" s="108"/>
       <c r="F4" s="108"/>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L4">
         <v>3.32</v>
@@ -10937,7 +10785,7 @@
       <c r="A5" s="108"/>
       <c r="F5" s="108"/>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L5">
         <v>3.24</v>
@@ -10950,7 +10798,7 @@
       <c r="A6" s="108"/>
       <c r="F6" s="108"/>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L6">
         <v>2.21</v>
@@ -10963,7 +10811,7 @@
       <c r="A7" s="108"/>
       <c r="F7" s="108"/>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L7">
         <v>3.34</v>
@@ -10976,7 +10824,7 @@
       <c r="A8" s="108"/>
       <c r="F8" s="108"/>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L8">
         <v>3.2</v>
@@ -10989,7 +10837,7 @@
       <c r="A9" s="108"/>
       <c r="F9" s="108"/>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L9">
         <v>1.69</v>
@@ -11006,10 +10854,10 @@
       <c r="A11" s="108"/>
       <c r="F11" s="108"/>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L11">
         <v>1.47</v>
@@ -11022,7 +10870,7 @@
       <c r="A12" s="108"/>
       <c r="F12" s="108"/>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L12">
         <v>3.51</v>
@@ -11035,7 +10883,7 @@
       <c r="A13" s="108"/>
       <c r="F13" s="108"/>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L13">
         <v>3.43</v>
@@ -11046,7 +10894,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="K14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L14">
         <v>2.39</v>
@@ -11057,7 +10905,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="K15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L15">
         <v>3.54</v>
@@ -11068,7 +10916,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="K16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L16">
         <v>3.38</v>
@@ -11079,7 +10927,7 @@
     </row>
     <row r="17" spans="11:13" x14ac:dyDescent="0.4">
       <c r="K17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L17">
         <v>1.86</v>
@@ -11105,8 +10953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8406B818-C2AC-4793-B30D-E5563113EF82}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11150,7 +10998,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -11218,13 +11066,13 @@
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>40</v>
+      <c r="C18" s="11">
+        <v>84.7</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="12">
         <v>29</v>
@@ -11232,7 +11080,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="12">
         <v>0</v>
@@ -11240,7 +11088,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="12">
         <v>630</v>
@@ -11248,7 +11096,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -11256,7 +11104,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="12">
         <v>0</v>
@@ -11264,7 +11112,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="12">
         <v>0</v>
@@ -11272,7 +11120,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="12">
         <v>0</v>
@@ -11280,7 +11128,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="12">
         <v>0</v>
@@ -11288,7 +11136,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -11296,42 +11144,42 @@
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="G31" s="87" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E32" s="20">
         <v>624223</v>
@@ -11345,7 +11193,7 @@
       <c r="B33" s="10"/>
       <c r="C33" s="51"/>
       <c r="D33" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E33" s="51">
         <v>1259419</v>
@@ -11360,15 +11208,15 @@
         <v>0.3</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D34" s="63" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
       <c r="G34" s="110" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -11376,10 +11224,10 @@
         <v>0.24</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D35" s="63" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
@@ -11390,10 +11238,10 @@
         <v>0.33</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D36" s="90" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
@@ -11412,8 +11260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAA75C3-DD15-4665-A055-4D66B73F3C83}">
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11432,20 +11280,20 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
       <c r="E1" s="104"/>
       <c r="F1" s="105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" s="105"/>
       <c r="H1" s="105"/>
       <c r="I1" s="105"/>
       <c r="J1" s="106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K1" s="106"/>
       <c r="L1" s="106"/>
@@ -11471,120 +11319,118 @@
     </row>
     <row r="2" spans="1:33" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>57</v>
-      </c>
       <c r="M2" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33"/>
       <c r="Q2" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R2" s="31"/>
       <c r="S2" s="31"/>
       <c r="T2" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
       <c r="W2" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X2" s="31"/>
       <c r="Y2" s="31"/>
       <c r="Z2" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="31"/>
       <c r="AB2" s="31"/>
       <c r="AC2" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="34"/>
       <c r="AE2" s="34"/>
       <c r="AF2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="26" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AG2" s="26"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="107" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>1998</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="36">
         <v>0.17</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S3" s="37">
         <v>0.04</v>
@@ -11593,7 +11439,7 @@
         <v>0.39</v>
       </c>
       <c r="U3" s="36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V3" s="39">
         <v>0.05</v>
@@ -11602,7 +11448,7 @@
         <v>0.05</v>
       </c>
       <c r="X3" s="36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y3" s="37">
         <v>0.02</v>
@@ -11611,7 +11457,7 @@
         <v>0.05</v>
       </c>
       <c r="AA3" s="36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB3" s="37">
         <v>0.05</v>
@@ -11620,7 +11466,7 @@
         <v>1</v>
       </c>
       <c r="AD3" s="42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AE3" s="41">
         <v>0.3</v>
@@ -11628,22 +11474,19 @@
       <c r="AF3" s="43">
         <f>Q3/T3</f>
         <v>0.4358974358974359</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="108"/>
       <c r="F4" s="108"/>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="44">
         <v>0.14000000000000001</v>
       </c>
       <c r="R4" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S4" s="45">
         <v>0.06</v>
@@ -11652,7 +11495,7 @@
         <v>0.41</v>
       </c>
       <c r="U4" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V4" s="47">
         <v>0.24</v>
@@ -11661,7 +11504,7 @@
         <v>0.16</v>
       </c>
       <c r="X4" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y4" s="45">
         <v>7.0000000000000007E-2</v>
@@ -11670,7 +11513,7 @@
         <v>0.02</v>
       </c>
       <c r="AA4" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB4" s="45">
         <v>0.04</v>
@@ -11679,7 +11522,7 @@
         <v>9.6</v>
       </c>
       <c r="AD4" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AE4" s="41">
         <v>2.6</v>
@@ -11693,13 +11536,13 @@
       <c r="A5" s="108"/>
       <c r="F5" s="108"/>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="44">
         <v>0.14000000000000001</v>
       </c>
       <c r="R5" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S5" s="45">
         <v>0.04</v>
@@ -11708,7 +11551,7 @@
         <v>0.3</v>
       </c>
       <c r="U5" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V5" s="47">
         <v>0.1</v>
@@ -11717,7 +11560,7 @@
         <v>0.27</v>
       </c>
       <c r="X5" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y5" s="45">
         <v>0.06</v>
@@ -11726,7 +11569,7 @@
         <v>0.02</v>
       </c>
       <c r="AA5" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB5" s="45">
         <v>0.03</v>
@@ -11735,7 +11578,7 @@
         <v>14.3</v>
       </c>
       <c r="AD5" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AE5" s="41">
         <v>3.1</v>
@@ -11749,13 +11592,13 @@
       <c r="A6" s="108"/>
       <c r="F6" s="108"/>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="44">
         <v>0.15</v>
       </c>
       <c r="R6" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S6" s="45">
         <v>0.03</v>
@@ -11764,7 +11607,7 @@
         <v>0.31</v>
       </c>
       <c r="U6" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V6" s="47">
         <v>0.06</v>
@@ -11773,7 +11616,7 @@
         <v>0.22</v>
       </c>
       <c r="X6" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y6" s="45">
         <v>0.03</v>
@@ -11782,7 +11625,7 @@
         <v>0.02</v>
       </c>
       <c r="AA6" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB6" s="45">
         <v>0.04</v>
@@ -11791,7 +11634,7 @@
         <v>10.4</v>
       </c>
       <c r="AD6" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AE6" s="41">
         <v>2.6</v>
@@ -11805,13 +11648,13 @@
       <c r="A7" s="108"/>
       <c r="F7" s="108"/>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="44">
         <v>0.16</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S7" s="45">
         <v>0.04</v>
@@ -11820,7 +11663,7 @@
         <v>0.36</v>
       </c>
       <c r="U7" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V7" s="47">
         <v>0.05</v>
@@ -11829,7 +11672,7 @@
         <v>0.19</v>
       </c>
       <c r="X7" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y7" s="45">
         <v>0.03</v>
@@ -11838,7 +11681,7 @@
         <v>0.02</v>
       </c>
       <c r="AA7" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB7" s="45">
         <v>0.02</v>
@@ -11847,7 +11690,7 @@
         <v>7.8</v>
       </c>
       <c r="AD7" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AE7" s="41">
         <v>0.7</v>
@@ -11865,38 +11708,38 @@
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="108"/>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C9">
         <v>2002</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F9" s="108"/>
       <c r="G9">
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q9" s="61">
         <v>0.14000000000000001</v>
       </c>
       <c r="R9" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S9" s="80">
         <v>0.05</v>
@@ -11905,7 +11748,7 @@
         <v>0.25</v>
       </c>
       <c r="U9" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V9" s="82">
         <v>0.09</v>
@@ -11914,7 +11757,7 @@
         <v>0.17</v>
       </c>
       <c r="X9" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y9" s="80">
         <v>0.03</v>
@@ -11923,7 +11766,7 @@
         <v>0.02</v>
       </c>
       <c r="AA9" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB9" s="82">
         <v>0</v>
@@ -11941,13 +11784,13 @@
       <c r="A10" s="108"/>
       <c r="F10" s="108"/>
       <c r="K10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="61">
         <v>0.14000000000000001</v>
       </c>
       <c r="R10" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S10" s="80">
         <v>0.05</v>
@@ -11956,7 +11799,7 @@
         <v>0.25</v>
       </c>
       <c r="U10" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V10" s="82">
         <v>0.1</v>
@@ -11965,7 +11808,7 @@
         <v>0.19</v>
       </c>
       <c r="X10" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y10" s="80">
         <v>0.04</v>
@@ -11974,7 +11817,7 @@
         <v>0.02</v>
       </c>
       <c r="AA10" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB10" s="82">
         <v>0.01</v>
@@ -11992,13 +11835,13 @@
       <c r="A11" s="108"/>
       <c r="F11" s="108"/>
       <c r="K11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="61">
         <v>0.14000000000000001</v>
       </c>
       <c r="R11" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S11" s="80">
         <v>0.06</v>
@@ -12007,7 +11850,7 @@
         <v>0.24</v>
       </c>
       <c r="U11" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V11" s="82">
         <v>0.1</v>
@@ -12016,7 +11859,7 @@
         <v>0.17</v>
       </c>
       <c r="X11" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y11" s="80">
         <v>0.02</v>
@@ -12025,7 +11868,7 @@
         <v>0.02</v>
       </c>
       <c r="AA11" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB11" s="82">
         <v>0</v>
@@ -12043,13 +11886,13 @@
       <c r="A12" s="108"/>
       <c r="F12" s="108"/>
       <c r="K12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q12" s="61">
         <v>0.15</v>
       </c>
       <c r="R12" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S12" s="80">
         <v>0.05</v>
@@ -12058,7 +11901,7 @@
         <v>0.26</v>
       </c>
       <c r="U12" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V12" s="82">
         <v>0.11</v>
@@ -12067,7 +11910,7 @@
         <v>0.2</v>
       </c>
       <c r="X12" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y12" s="80">
         <v>0.03</v>
@@ -12076,7 +11919,7 @@
         <v>0.02</v>
       </c>
       <c r="AA12" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB12" s="82">
         <v>0</v>
@@ -12094,13 +11937,13 @@
       <c r="A13" s="108"/>
       <c r="F13" s="108"/>
       <c r="K13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="61">
         <v>0.11</v>
       </c>
       <c r="R13" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S13" s="80">
         <v>0.04</v>
@@ -12109,7 +11952,7 @@
         <v>0.15</v>
       </c>
       <c r="U13" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V13" s="82">
         <v>0.08</v>
@@ -12118,7 +11961,7 @@
         <v>0.21</v>
       </c>
       <c r="X13" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y13" s="80">
         <v>0.03</v>
@@ -12127,7 +11970,7 @@
         <v>0.03</v>
       </c>
       <c r="AA13" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB13" s="80">
         <v>0.02</v>
@@ -12143,13 +11986,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="K14" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="61">
         <v>0.12</v>
       </c>
       <c r="R14" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S14" s="80">
         <v>0.05</v>
@@ -12158,7 +12001,7 @@
         <v>0.54</v>
       </c>
       <c r="U14" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V14" s="82">
         <v>0.55000000000000004</v>
@@ -12167,7 +12010,7 @@
         <v>0.24</v>
       </c>
       <c r="X14" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y14" s="80">
         <v>0.23</v>
@@ -12176,7 +12019,7 @@
         <v>0.01</v>
       </c>
       <c r="AA14" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB14" s="80">
         <v>0.01</v>
@@ -12192,13 +12035,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="K15" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q15" s="61">
         <v>0.16</v>
       </c>
       <c r="R15" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S15" s="80">
         <v>0.06</v>
@@ -12207,7 +12050,7 @@
         <v>0.33</v>
       </c>
       <c r="U15" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V15" s="82">
         <v>0.09</v>
@@ -12216,7 +12059,7 @@
         <v>0.03</v>
       </c>
       <c r="X15" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y15" s="80">
         <v>0.01</v>
@@ -12225,7 +12068,7 @@
         <v>0.04</v>
       </c>
       <c r="AA15" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB15" s="80">
         <v>0.01</v>
@@ -12262,8 +12105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92830982-83EC-4DAD-8D8C-FEBF064EBA95}">
   <dimension ref="B2:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12375,13 +12218,13 @@
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>16</v>
+      <c r="C18" s="11">
+        <v>48.9</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="12">
         <v>31</v>
@@ -12389,7 +12232,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="12">
         <v>0</v>
@@ -12397,7 +12240,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="12">
         <v>546</v>
@@ -12405,7 +12248,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -12413,7 +12256,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="12">
         <v>0</v>
@@ -12421,7 +12264,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="12">
         <v>0</v>
@@ -12429,7 +12272,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="12">
         <v>0</v>
@@ -12437,7 +12280,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="12">
         <v>0</v>
@@ -12445,7 +12288,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -12453,42 +12296,42 @@
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="F32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="G32" s="87" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="20">
         <v>1345615</v>
@@ -12503,15 +12346,15 @@
         <v>0.12</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
       <c r="G34" s="112" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -12519,10 +12362,10 @@
         <v>0.12</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
@@ -12533,10 +12376,10 @@
         <v>0.11</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51"/>
@@ -12547,10 +12390,10 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
@@ -12558,7 +12401,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -12575,8 +12418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182295BC-FF06-4E1E-BD27-7FBED7896E1E}">
   <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12594,20 +12437,20 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A1" s="104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
       <c r="E1" s="104"/>
       <c r="F1" s="105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" s="105"/>
       <c r="H1" s="105"/>
       <c r="I1" s="105"/>
       <c r="J1" s="106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K1" s="106"/>
       <c r="L1" s="106"/>
@@ -12639,132 +12482,130 @@
     </row>
     <row r="2" spans="1:39" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="L2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="M2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="N2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>57</v>
-      </c>
       <c r="O2" s="31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
       <c r="R2" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
       <c r="V2" s="33"/>
       <c r="W2" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X2" s="31"/>
       <c r="Y2" s="31"/>
       <c r="Z2" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="31"/>
       <c r="AB2" s="31"/>
       <c r="AC2" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD2" s="31"/>
       <c r="AE2" s="31"/>
       <c r="AF2" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="31"/>
       <c r="AH2" s="31"/>
       <c r="AI2" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="34"/>
       <c r="AL2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" s="55" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AM2" s="55"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A3" s="107" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>2009</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O3" s="60">
         <v>9.5</v>
       </c>
       <c r="P3" s="60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="60">
         <v>2.58</v>
@@ -12774,7 +12615,7 @@
         <v>0.24</v>
       </c>
       <c r="X3" s="56" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y3" s="37">
         <v>0.08</v>
@@ -12783,7 +12624,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="AA3" s="56" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB3" s="37">
         <v>8.9999999999999993E-3</v>
@@ -12792,7 +12633,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD3" s="56" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AE3" s="37">
         <v>6.0000000000000001E-3</v>
@@ -12801,7 +12642,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="AG3" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AH3" s="57">
         <v>3.0000000000000001E-3</v>
@@ -12811,13 +12652,13 @@
       <c r="A4" s="108"/>
       <c r="F4" s="108"/>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O4" s="60">
         <v>12.3</v>
       </c>
       <c r="P4" s="60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="60">
         <v>3.42</v>
@@ -12826,7 +12667,7 @@
         <v>0.3</v>
       </c>
       <c r="T4" s="60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="U4" s="60">
         <v>0.08</v>
@@ -12835,7 +12676,7 @@
         <v>0.23</v>
       </c>
       <c r="X4" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y4" s="45">
         <v>0.08</v>
@@ -12844,7 +12685,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="AA4" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB4" s="45">
         <v>1.9E-2</v>
@@ -12853,7 +12694,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="AD4" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AE4" s="45">
         <v>7.9000000000000001E-2</v>
@@ -12862,7 +12703,7 @@
         <v>0.05</v>
       </c>
       <c r="AG4" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AH4" s="57">
         <v>2.3E-2</v>
@@ -12872,13 +12713,13 @@
       <c r="A5" s="108"/>
       <c r="F5" s="108"/>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O5" s="60">
         <v>11.7</v>
       </c>
       <c r="P5" s="60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="60">
         <v>3.32</v>
@@ -12887,7 +12728,7 @@
         <v>0.23</v>
       </c>
       <c r="T5" s="60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="U5" s="60">
         <v>0.08</v>
@@ -12896,7 +12737,7 @@
         <v>0.22</v>
       </c>
       <c r="X5" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y5" s="45">
         <v>0.08</v>
@@ -12905,7 +12746,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="AA5" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB5" s="45">
         <v>2.1000000000000001E-2</v>
@@ -12914,7 +12755,7 @@
         <v>0.108</v>
       </c>
       <c r="AD5" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AE5" s="45">
         <v>8.3000000000000004E-2</v>
@@ -12923,7 +12764,7 @@
         <v>0.05</v>
       </c>
       <c r="AG5" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AH5" s="57">
         <v>2.3E-2</v>
@@ -12933,13 +12774,13 @@
       <c r="A6" s="108"/>
       <c r="F6" s="108"/>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O6" s="60">
         <v>17.3</v>
       </c>
       <c r="P6" s="60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="60">
         <v>5.01</v>
@@ -12948,7 +12789,7 @@
         <v>0.82</v>
       </c>
       <c r="T6" s="60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="U6" s="60">
         <v>0.19</v>
@@ -12957,7 +12798,7 @@
         <v>0.23</v>
       </c>
       <c r="X6" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y6" s="45">
         <v>7.0000000000000007E-2</v>
@@ -12966,7 +12807,7 @@
         <v>0.11</v>
       </c>
       <c r="AA6" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB6" s="45">
         <v>3.2000000000000001E-2</v>
@@ -12975,7 +12816,7 @@
         <v>0.17799999999999999</v>
       </c>
       <c r="AD6" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AE6" s="45">
         <v>5.8000000000000003E-2</v>
@@ -12984,7 +12825,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="AG6" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AH6" s="57">
         <v>8.0000000000000002E-3</v>
@@ -12994,13 +12835,13 @@
       <c r="A7" s="108"/>
       <c r="F7" s="108"/>
       <c r="K7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O7" s="60">
         <v>41.4</v>
       </c>
       <c r="P7" s="60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="41">
         <v>12</v>
@@ -13009,7 +12850,7 @@
         <v>3.38</v>
       </c>
       <c r="T7" s="60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="U7" s="60">
         <v>0.72</v>
@@ -13018,7 +12859,7 @@
         <v>0.27</v>
       </c>
       <c r="X7" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y7" s="45">
         <v>0.09</v>
@@ -13027,7 +12868,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="AA7" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB7" s="45">
         <v>3.2000000000000001E-2</v>
@@ -13036,7 +12877,7 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="AD7" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AE7" s="45">
         <v>0.13300000000000001</v>
@@ -13045,7 +12886,7 @@
         <v>0.06</v>
       </c>
       <c r="AG7" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AH7" s="57">
         <v>6.3E-2</v>
@@ -13059,16 +12900,16 @@
       <c r="A9" s="108"/>
       <c r="F9" s="108"/>
       <c r="J9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Z9" s="75">
         <v>1.6E-2</v>
       </c>
       <c r="AA9" s="68" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB9" s="75">
         <v>1.2E-2</v>
@@ -13078,7 +12919,7 @@
       <c r="A10" s="108"/>
       <c r="F10" s="108"/>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="S10" s="69">
         <v>0.36</v>
@@ -13090,7 +12931,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="AA10" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB10" s="75">
         <v>1.0999999999999999E-2</v>
@@ -13100,7 +12941,7 @@
       <c r="A11" s="108"/>
       <c r="F11" s="108"/>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="S11" s="60">
         <v>0.3</v>
@@ -13112,7 +12953,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AA11" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB11" s="75">
         <v>8.0000000000000002E-3</v>
@@ -13122,7 +12963,7 @@
       <c r="A12" s="108"/>
       <c r="F12" s="108"/>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S12" s="60">
         <v>0.7</v>
@@ -13134,7 +12975,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="AA12" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB12" s="75">
         <v>5.0000000000000001E-3</v>
@@ -13144,7 +12985,7 @@
       <c r="A13" s="108"/>
       <c r="F13" s="108"/>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="S13" s="69">
         <v>2.21</v>
@@ -13156,7 +12997,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="AA13" s="61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB13" s="75">
         <v>4.0000000000000001E-3</v>
